--- a/teaching/traditional_assets/database/data/bulgaria/bulgaria_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/bulgaria/bulgaria_financial_svcs_non_bank_insurance.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1824</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="E2">
-        <v>0.4385</v>
+        <v>0.1662</v>
       </c>
       <c r="G2">
-        <v>0.1118881118881119</v>
+        <v>0.1234793187347932</v>
       </c>
       <c r="H2">
-        <v>0.1118881118881119</v>
+        <v>0.1234793187347932</v>
       </c>
       <c r="I2">
-        <v>0.1246026700572155</v>
+        <v>0.1058394160583942</v>
       </c>
       <c r="J2">
-        <v>0.1118832396325817</v>
+        <v>0.09354965160592663</v>
       </c>
       <c r="K2">
-        <v>4.282</v>
+        <v>4.108</v>
       </c>
       <c r="L2">
-        <v>0.2722186904005086</v>
+        <v>0.2498783454987835</v>
       </c>
       <c r="M2">
-        <v>1.8192</v>
+        <v>1.9486</v>
       </c>
       <c r="N2">
-        <v>0.03627517447657029</v>
+        <v>0.0360518038852914</v>
       </c>
       <c r="O2">
-        <v>0.4248482017748715</v>
+        <v>0.4743427458617333</v>
       </c>
       <c r="P2">
-        <v>1.7032</v>
+        <v>1.6926</v>
       </c>
       <c r="Q2">
-        <v>0.03396211365902294</v>
+        <v>0.0313154486586494</v>
       </c>
       <c r="R2">
-        <v>0.3977580569827184</v>
+        <v>0.4120253164556963</v>
       </c>
       <c r="S2">
-        <v>0.1159999999999999</v>
+        <v>0.256</v>
       </c>
       <c r="T2">
-        <v>0.06376429199648194</v>
+        <v>0.1313763727804578</v>
       </c>
       <c r="U2">
-        <v>47.06</v>
+        <v>57.64</v>
       </c>
       <c r="V2">
-        <v>0.9383848454636092</v>
+        <v>1.066419981498612</v>
       </c>
       <c r="W2">
-        <v>0.127986906710311</v>
+        <v>0.148494983277592</v>
       </c>
       <c r="X2">
-        <v>0.03016514200162525</v>
+        <v>0.019631896618046</v>
       </c>
       <c r="Y2">
-        <v>0.09782176470868571</v>
+        <v>0.128863086659546</v>
       </c>
       <c r="Z2">
-        <v>1.64608622854751</v>
+        <v>6.277205040091617</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03086921491644323</v>
+        <v>0.01967830629871981</v>
       </c>
       <c r="AC2">
-        <v>-0.03547483110305311</v>
+        <v>-0.02617687185052062</v>
       </c>
       <c r="AD2">
-        <v>10.053</v>
+        <v>12.21</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.053</v>
+        <v>12.21</v>
       </c>
       <c r="AG2">
-        <v>-37.00700000000001</v>
+        <v>-45.43</v>
       </c>
       <c r="AH2">
-        <v>0.1669850339684069</v>
+        <v>0.1842740718382131</v>
       </c>
       <c r="AI2">
-        <v>0.2066689965668236</v>
+        <v>0.2169509594882729</v>
       </c>
       <c r="AJ2">
-        <v>-2.815719394354411</v>
+        <v>-5.270301624129932</v>
       </c>
       <c r="AK2">
-        <v>-23.37776373973471</v>
+        <v>33.4044117647059</v>
       </c>
       <c r="AL2">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="AM2">
-        <v>-0.067</v>
+        <v>-0.045</v>
       </c>
       <c r="AN2">
-        <v>4.741981132075471</v>
+        <v>5.927184466019417</v>
       </c>
       <c r="AO2">
-        <v>217.7777777777778</v>
+        <v>348</v>
       </c>
       <c r="AP2">
-        <v>-17.4561320754717</v>
+        <v>-22.05339805825243</v>
       </c>
       <c r="AQ2">
-        <v>-29.25373134328358</v>
+        <v>-38.66666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0508</v>
+        <v>0.0548</v>
       </c>
       <c r="E3">
-        <v>0.52</v>
+        <v>0.0344</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -743,85 +743,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.782</v>
+        <v>0.888</v>
       </c>
       <c r="L3">
-        <v>0.2474683544303797</v>
+        <v>0.2187192118226601</v>
       </c>
       <c r="M3">
-        <v>0.511</v>
+        <v>0.336</v>
       </c>
       <c r="N3">
-        <v>0.06119760479041916</v>
+        <v>0.03411167512690356</v>
       </c>
       <c r="O3">
-        <v>0.6534526854219949</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="P3">
-        <v>0.418</v>
+        <v>0.08</v>
       </c>
       <c r="Q3">
-        <v>0.05005988023952096</v>
+        <v>0.008121827411167513</v>
       </c>
       <c r="R3">
-        <v>0.5345268542199488</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="S3">
-        <v>0.09300000000000003</v>
+        <v>0.256</v>
       </c>
       <c r="T3">
-        <v>0.1819960861056752</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="U3">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V3">
-        <v>0.1724550898203593</v>
+        <v>0.1644670050761421</v>
       </c>
       <c r="W3">
-        <v>0.127986906710311</v>
+        <v>0.148494983277592</v>
       </c>
       <c r="X3">
-        <v>0.03016514200162525</v>
+        <v>0.01960803972235912</v>
       </c>
       <c r="Y3">
-        <v>0.09782176470868571</v>
+        <v>0.1288869435552328</v>
       </c>
       <c r="Z3">
-        <v>0.6530274850175656</v>
+        <v>0.8144433299899696</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03086921491644323</v>
+        <v>0.01962800848496591</v>
       </c>
       <c r="AC3">
-        <v>-0.03086921491644323</v>
+        <v>-0.01962800848496591</v>
       </c>
       <c r="AD3">
-        <v>0.333</v>
+        <v>0.019</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.333</v>
+        <v>0.019</v>
       </c>
       <c r="AG3">
-        <v>-1.107</v>
+        <v>-1.601</v>
       </c>
       <c r="AH3">
-        <v>0.03835080041460325</v>
+        <v>0.001925220387070625</v>
       </c>
       <c r="AI3">
-        <v>0.05184493227463802</v>
+        <v>0.002928032054245646</v>
       </c>
       <c r="AJ3">
-        <v>-0.1528372221455198</v>
+        <v>-0.1940841314098679</v>
       </c>
       <c r="AK3">
-        <v>-0.222155328115593</v>
+        <v>-0.3288149517354694</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -846,6 +846,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.526</v>
+      </c>
+      <c r="E4">
+        <v>0.298</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -859,91 +865,91 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="L4">
-        <v>0.2391629297458894</v>
+        <v>0.2737704918032787</v>
       </c>
       <c r="M4">
-        <v>1.1942</v>
+        <v>1.5006</v>
       </c>
       <c r="N4">
-        <v>0.05081702127659574</v>
+        <v>0.06252500000000001</v>
       </c>
       <c r="O4">
-        <v>0.7463749999999999</v>
+        <v>0.8985628742514972</v>
       </c>
       <c r="P4">
-        <v>1.1712</v>
+        <v>1.5006</v>
       </c>
       <c r="Q4">
-        <v>0.04983829787234043</v>
+        <v>0.06252500000000001</v>
       </c>
       <c r="R4">
-        <v>0.732</v>
+        <v>0.8985628742514972</v>
       </c>
       <c r="S4">
-        <v>0.02299999999999991</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01925975548484334</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>3.42</v>
+        <v>4.22</v>
       </c>
       <c r="V4">
-        <v>0.145531914893617</v>
+        <v>0.1758333333333333</v>
       </c>
       <c r="W4">
-        <v>0.06557377049180328</v>
+        <v>0.07167381974248926</v>
       </c>
       <c r="X4">
-        <v>0.03372561783051009</v>
+        <v>0.02425934271993178</v>
       </c>
       <c r="Y4">
-        <v>0.03184815266129319</v>
+        <v>0.04741447702255749</v>
       </c>
       <c r="Z4">
-        <v>0.205719557195572</v>
+        <v>0.2060810810810811</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03547483110305311</v>
+        <v>0.02617687185052062</v>
       </c>
       <c r="AC4">
-        <v>-0.03547483110305311</v>
+        <v>-0.02617687185052062</v>
       </c>
       <c r="AD4">
-        <v>9.720000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.720000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="AG4">
-        <v>6.300000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="AH4">
-        <v>0.2925948223961469</v>
+        <v>0.335180055401662</v>
       </c>
       <c r="AI4">
-        <v>0.294367050272562</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="AJ4">
-        <v>0.2114093959731544</v>
+        <v>0.247176913425345</v>
       </c>
       <c r="AK4">
-        <v>0.2128378378378379</v>
+        <v>0.2374924653405666</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.022</v>
+        <v>-0.005</v>
       </c>
       <c r="AQ4">
         <v>-0</v>
@@ -966,46 +972,43 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.314</v>
-      </c>
-      <c r="E5">
-        <v>0.357</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="G5">
-        <v>0.2993197278911565</v>
+        <v>0.3232484076433121</v>
       </c>
       <c r="H5">
-        <v>0.2993197278911565</v>
+        <v>0.3232484076433121</v>
       </c>
       <c r="I5">
-        <v>0.3333333333333333</v>
+        <v>0.2770700636942675</v>
       </c>
       <c r="J5">
-        <v>0.2951713395638629</v>
+        <v>0.238895966029724</v>
       </c>
       <c r="K5">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L5">
-        <v>0.3231292517006802</v>
+        <v>0.2468152866242038</v>
       </c>
       <c r="M5">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="N5">
-        <v>0.006229508196721311</v>
+        <v>0.005544554455445545</v>
       </c>
       <c r="O5">
-        <v>0.06</v>
+        <v>0.07225806451612903</v>
       </c>
       <c r="P5">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="Q5">
-        <v>0.006229508196721311</v>
+        <v>0.005544554455445545</v>
       </c>
       <c r="R5">
-        <v>0.06</v>
+        <v>0.07225806451612903</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1014,73 +1017,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>42.2</v>
+        <v>51.8</v>
       </c>
       <c r="V5">
-        <v>2.306010928961749</v>
+        <v>2.564356435643564</v>
       </c>
       <c r="W5">
-        <v>0.2392947103274559</v>
+        <v>0.1710816777041942</v>
       </c>
       <c r="X5">
-        <v>0.02978521517666172</v>
+        <v>0.019631896618046</v>
       </c>
       <c r="Y5">
-        <v>0.2095094951507942</v>
+        <v>0.1514497810861483</v>
       </c>
       <c r="Z5">
-        <v>-0.2114879689242168</v>
+        <v>-0.1964587374084966</v>
       </c>
       <c r="AA5">
-        <v>-0.0624251870890017</v>
+        <v>-0.04693319985818266</v>
       </c>
       <c r="AB5">
-        <v>0.02978521517666172</v>
+        <v>0.01967830629871981</v>
       </c>
       <c r="AC5">
-        <v>-0.09221040226566342</v>
+        <v>-0.06661150615690248</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="AG5">
-        <v>-42.2</v>
+        <v>-51.709</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.004484746932137401</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.007344040029053345</v>
       </c>
       <c r="AJ5">
-        <v>1.765690376569038</v>
+        <v>1.641086673648799</v>
       </c>
       <c r="AK5">
-        <v>1.278787878787879</v>
+        <v>1.312111446623868</v>
       </c>
       <c r="AL5">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="AM5">
-        <v>-0.045</v>
+        <v>-0.04</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.04417475728155339</v>
       </c>
       <c r="AO5">
-        <v>217.7777777777778</v>
+        <v>348</v>
       </c>
       <c r="AP5">
-        <v>-19.90566037735849</v>
+        <v>-25.10145631067961</v>
       </c>
       <c r="AQ5">
-        <v>-43.55555555555556</v>
+        <v>-43.5</v>
       </c>
     </row>
   </sheetData>
